--- a/API_TEST/datas/testdatas.xlsx
+++ b/API_TEST/datas/testdatas.xlsx
@@ -279,7 +279,7 @@
     <t>{"status":"1","code":"10001","data":null,"msg":"充值成功"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"8001100.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"9001110.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>正常充值-金额为1</t>
@@ -288,7 +288,7 @@
     <t>{"mobilephone":"15680978629","amount":1}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"8001101.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"9001111.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>正常充值-金额为499999</t>
@@ -297,7 +297,7 @@
     <t>{"mobilephone":"15680978629","amount":499999}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"8501100.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"9501110.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>正常充值-金额为0.01</t>
@@ -306,7 +306,7 @@
     <t>{"mobilephone":"15680978629","amount":0.01}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"8501100.01","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"9501110.01","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>正常充值-金额为499999.99</t>
@@ -315,7 +315,7 @@
     <t>{"mobilephone":"15680978629","amount":499999.99}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"9001100.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"10001110.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>充值失败-手机号不存在</t>
@@ -420,19 +420,19 @@
     <t>{"status":"0","code":"20118","data":null,"msg":"请输入数字"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"9001110.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"9001111.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"9501110.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"9501110.01","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"10001110.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"18001200.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"18001201.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"18501200.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"18501200.01","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"19001200.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
   </si>
 </sst>
 </file>

--- a/API_TEST/datas/testdatas.xlsx
+++ b/API_TEST/datas/testdatas.xlsx
@@ -279,7 +279,7 @@
     <t>{"status":"1","code":"10001","data":null,"msg":"充值成功"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"9001110.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"18001200.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>正常充值-金额为1</t>
@@ -288,7 +288,7 @@
     <t>{"mobilephone":"15680978629","amount":1}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"9001111.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"18001201.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>正常充值-金额为499999</t>
@@ -297,7 +297,7 @@
     <t>{"mobilephone":"15680978629","amount":499999}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"9501110.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"18501200.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>正常充值-金额为0.01</t>
@@ -306,7 +306,7 @@
     <t>{"mobilephone":"15680978629","amount":0.01}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"9501110.01","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"18501200.01","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>正常充值-金额为499999.99</t>
@@ -315,7 +315,7 @@
     <t>{"mobilephone":"15680978629","amount":499999.99}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"10001110.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"19001200.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>充值失败-手机号不存在</t>
@@ -420,19 +420,19 @@
     <t>{"status":"0","code":"20118","data":null,"msg":"请输入数字"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"18001200.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"18001201.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"18501200.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"18501200.01","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"19001200.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"20001220.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"20001221.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"20501220.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"20501220.01","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>{"status":1,"code":"10001","data":{"id":1112322,"regname":"小蜜蜂","pwd":"FCEA920F7412B5DA7BE0CF42B8C93759","mobilephone":"15680978629","leaveamount":"21001220.00","type":"1","regtime":"2018-12-29 17:08:45.0"},"msg":"充值成功"}</t>
   </si>
 </sst>
 </file>
